--- a/Sheet/Opportunities 2024-4-12.xlsx
+++ b/Sheet/Opportunities 2024-4-12.xlsx
@@ -412,7 +412,7 @@
         <v/>
       </c>
       <c r="B2" t="str">
-        <v>As of 2024-4-12 20:3 UTC/GMT</v>
+        <v>As of 2024-4-12 23:20 UTC/GMT</v>
       </c>
     </row>
     <row r="4">
